--- a/script/ground_truth/autoware_docs/autoware_behavior_velocity_no_drivable_lane/raw_data.xlsx
+++ b/script/ground_truth/autoware_docs/autoware_behavior_velocity_no_drivable_lane/raw_data.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10311"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECE81342-374E-0E4A-86E1-4359E7A1B16A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19760" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="26860" windowHeight="15060" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -13,12 +12,25 @@
     <sheet name="union" sheetId="3" r:id="rId3"/>
     <sheet name="mtl" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="46">
   <si>
     <t>index</t>
   </si>
@@ -107,6 +119,9 @@
     <t>The no drivable lane state machine starts in `INIT` state</t>
   </si>
   <si>
+    <t>mtl</t>
+  </si>
+  <si>
     <t>explaination</t>
   </si>
   <si>
@@ -122,7 +137,10 @@
     <t>This complex requirement is captured by G((¬N ∧ X(N)) → X(S)) ∧ G((N ∧ A) → S). Here, N is 'no drivable lane', S is 'stopped', and A is 'autonomous mode'. The first part ensures that if the next state is a no drivable lane, the vehicle stops. The second part ensures that if the vehicle is in a no drivable lane and in autonomous mode, it remains stopped.</t>
   </si>
   <si>
-    <t>-</t>
+    <t>G(S→X(R))</t>
+  </si>
+  <si>
+    <t>The formula uses the 'next' operator X to indicate that after the vehicle is stopped or be statonary as in the previous condition(S), in the immediately following state, a takeover request (represented by predicate R) should be issued to the human driver. X captures the immediate temporal sequence implied by 'Then' in the natural language.</t>
   </si>
   <si>
     <t>G(L → X(F))</t>
@@ -131,6 +149,12 @@
     <t>This can be expressed as G(L → X(F)), where L is 'lane has no drivable label' and F is 'function activation'. The formula states that globally, if a lane is labeled as no drivable, in the next state, the function will be activated. This captures the immediate response to detecting a no drivable lane.</t>
   </si>
   <si>
+    <t>G(S∧I)</t>
+  </si>
+  <si>
+    <t>S represents starting the no drivable lane state machine, and the I represents starts in `INIT` state. This formular means there are no drivable lane state machine start in `INIT` state.</t>
+  </si>
+  <si>
     <t>G((D ∧ ¬N) → X(A))</t>
   </si>
   <si>
@@ -147,51 +171,191 @@
   </si>
   <si>
     <t>This is represented as G(V → X(S)), where V is 'vehicle completely stopped' and S is 'STOPPED state'. The formula states that globally, if the vehicle is completely stopped, in the next state, it will be in the STOPPED state. This captures the immediate transition to the STOPPED state when the vehicle halts.</t>
-  </si>
-  <si>
-    <t>mtl</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>the distance from front of the ego vehicle till the first intersection point between the ego path and the no drivable lane polygon is less than the `stop_margin`</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="5">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0."/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF262626"/>
       <name val="等线"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="等线"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -201,10 +365,197 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -227,9 +578,251 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -239,36 +832,80 @@
     <xf numFmtId="176" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -590,26 +1227,28 @@
       </a:style>
     </a:lnDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:Z205"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.83653846153846" defaultRowHeight="16.8"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
-    <col min="2" max="2" width="24.6640625" customWidth="1"/>
-    <col min="3" max="3" width="22.1640625" customWidth="1"/>
+    <col min="2" max="2" width="24.6634615384615" customWidth="1"/>
+    <col min="3" max="3" width="22.1634615384615" customWidth="1"/>
     <col min="4" max="4" width="43.5" customWidth="1"/>
     <col min="5" max="26" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="25.75" customHeight="1">
+    <row r="1" ht="25.75" customHeight="1" spans="1:26">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -625,731 +1264,734 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="3"/>
-      <c r="S1" s="3"/>
-      <c r="T1" s="3"/>
-      <c r="U1" s="3"/>
-      <c r="V1" s="3"/>
-      <c r="W1" s="3"/>
-      <c r="X1" s="3"/>
-      <c r="Y1" s="3"/>
-      <c r="Z1" s="3"/>
-    </row>
-    <row r="2" spans="1:26" ht="131.5" customHeight="1">
-      <c r="B2" s="4" t="s">
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
+      <c r="P1" s="8"/>
+      <c r="Q1" s="8"/>
+      <c r="R1" s="8"/>
+      <c r="S1" s="8"/>
+      <c r="T1" s="8"/>
+      <c r="U1" s="8"/>
+      <c r="V1" s="8"/>
+      <c r="W1" s="8"/>
+      <c r="X1" s="8"/>
+      <c r="Y1" s="8"/>
+      <c r="Z1" s="8"/>
+    </row>
+    <row r="2" ht="131.5" customHeight="1" spans="2:4">
+      <c r="B2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="3">
         <v>20</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="131.5" customHeight="1">
-      <c r="B3" s="4" t="s">
+    <row r="3" ht="131.5" customHeight="1" spans="2:4">
+      <c r="B3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="3">
         <v>20</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:26" ht="131.5" customHeight="1">
-      <c r="B4" s="4" t="s">
+    <row r="4" ht="131.5" customHeight="1" spans="2:4">
+      <c r="B4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="3">
         <v>24</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:26" ht="147.75" customHeight="1">
-      <c r="B5" s="4" t="s">
+    <row r="5" ht="147.75" customHeight="1" spans="2:4">
+      <c r="B5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="3">
         <v>38</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:26" ht="147.75" customHeight="1">
-      <c r="B6" s="4" t="s">
+    <row r="6" ht="147.75" customHeight="1" spans="2:4">
+      <c r="B6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="3">
         <v>39</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:26" ht="122" customHeight="1">
-      <c r="B7" s="4" t="s">
+    <row r="7" ht="122" customHeight="1" spans="2:4">
+      <c r="B7" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="3">
         <v>40</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:26" ht="100.25" customHeight="1">
-      <c r="B8" s="4" t="s">
+    <row r="8" ht="100.25" customHeight="1" spans="2:4">
+      <c r="B8" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="3">
         <v>41</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:26" ht="216.5" customHeight="1">
-      <c r="B9" s="4" t="s">
+    <row r="9" ht="216.5" customHeight="1" spans="2:4">
+      <c r="B9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="3">
         <v>42</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:26" ht="39.5" customHeight="1">
-      <c r="B10" s="4" t="s">
+    <row r="10" ht="39.5" customHeight="1" spans="2:4">
+      <c r="B10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="3">
         <v>43</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:26" ht="24" customHeight="1">
+    <row r="11" ht="24" customHeight="1" spans="4:4">
       <c r="D11" s="5"/>
     </row>
-    <row r="12" spans="1:26" ht="24" customHeight="1">
+    <row r="12" ht="24" customHeight="1" spans="4:4">
       <c r="D12" s="5"/>
     </row>
-    <row r="13" spans="1:26" ht="24" customHeight="1">
+    <row r="13" ht="24" customHeight="1" spans="4:4">
       <c r="D13" s="5"/>
     </row>
-    <row r="14" spans="1:26" ht="24" customHeight="1">
+    <row r="14" ht="24" customHeight="1" spans="4:4">
       <c r="D14" s="5"/>
     </row>
-    <row r="15" spans="1:26" ht="24" customHeight="1">
+    <row r="15" ht="24" customHeight="1" spans="4:4">
       <c r="D15" s="5"/>
     </row>
-    <row r="16" spans="1:26" ht="24" customHeight="1">
+    <row r="16" ht="24" customHeight="1" spans="4:4">
       <c r="D16" s="5"/>
     </row>
-    <row r="17" spans="4:4" ht="24" customHeight="1">
+    <row r="17" ht="24" customHeight="1" spans="4:4">
       <c r="D17" s="5"/>
     </row>
-    <row r="18" spans="4:4" ht="24" customHeight="1">
+    <row r="18" ht="24" customHeight="1" spans="4:4">
       <c r="D18" s="5"/>
     </row>
-    <row r="19" spans="4:4" ht="24" customHeight="1">
+    <row r="19" ht="24" customHeight="1" spans="4:4">
       <c r="D19" s="5"/>
     </row>
-    <row r="20" spans="4:4" ht="24" customHeight="1">
+    <row r="20" ht="24" customHeight="1" spans="4:4">
       <c r="D20" s="5"/>
     </row>
-    <row r="21" spans="4:4" ht="24" customHeight="1">
+    <row r="21" ht="24" customHeight="1" spans="4:4">
       <c r="D21" s="5"/>
     </row>
-    <row r="22" spans="4:4" ht="24" customHeight="1">
+    <row r="22" ht="24" customHeight="1" spans="4:4">
       <c r="D22" s="5"/>
     </row>
-    <row r="23" spans="4:4" ht="24" customHeight="1">
+    <row r="23" ht="24" customHeight="1" spans="4:4">
       <c r="D23" s="5"/>
     </row>
-    <row r="24" spans="4:4" ht="24" customHeight="1">
+    <row r="24" ht="24" customHeight="1" spans="4:4">
       <c r="D24" s="5"/>
     </row>
-    <row r="25" spans="4:4" ht="24" customHeight="1">
+    <row r="25" ht="24" customHeight="1" spans="4:4">
       <c r="D25" s="5"/>
     </row>
-    <row r="26" spans="4:4" ht="24" customHeight="1">
+    <row r="26" ht="24" customHeight="1" spans="4:4">
       <c r="D26" s="5"/>
     </row>
-    <row r="27" spans="4:4" ht="24" customHeight="1">
+    <row r="27" ht="24" customHeight="1" spans="4:4">
       <c r="D27" s="5"/>
     </row>
-    <row r="28" spans="4:4" ht="24" customHeight="1">
+    <row r="28" ht="24" customHeight="1" spans="4:4">
       <c r="D28" s="5"/>
     </row>
-    <row r="29" spans="4:4" ht="24" customHeight="1">
+    <row r="29" ht="24" customHeight="1" spans="4:4">
       <c r="D29" s="5"/>
     </row>
-    <row r="30" spans="4:4" ht="24" customHeight="1">
+    <row r="30" ht="24" customHeight="1" spans="4:4">
       <c r="D30" s="5"/>
     </row>
-    <row r="31" spans="4:4" ht="24" customHeight="1">
+    <row r="31" ht="24" customHeight="1" spans="4:4">
       <c r="D31" s="5"/>
     </row>
-    <row r="32" spans="4:4" ht="24" customHeight="1">
+    <row r="32" ht="24" customHeight="1" spans="4:4">
       <c r="D32" s="5"/>
     </row>
-    <row r="33" spans="4:4" ht="24" customHeight="1">
+    <row r="33" ht="24" customHeight="1" spans="4:4">
       <c r="D33" s="5"/>
     </row>
-    <row r="34" spans="4:4" ht="24" customHeight="1">
+    <row r="34" ht="24" customHeight="1" spans="4:4">
       <c r="D34" s="5"/>
     </row>
-    <row r="35" spans="4:4" ht="24" customHeight="1">
+    <row r="35" ht="24" customHeight="1" spans="4:4">
       <c r="D35" s="5"/>
     </row>
-    <row r="36" spans="4:4" ht="24" customHeight="1">
+    <row r="36" ht="24" customHeight="1" spans="4:4">
       <c r="D36" s="5"/>
     </row>
-    <row r="37" spans="4:4" ht="24" customHeight="1">
+    <row r="37" ht="24" customHeight="1" spans="4:4">
       <c r="D37" s="5"/>
     </row>
-    <row r="38" spans="4:4" ht="24" customHeight="1">
+    <row r="38" ht="24" customHeight="1" spans="4:4">
       <c r="D38" s="5"/>
     </row>
-    <row r="39" spans="4:4" ht="24" customHeight="1">
+    <row r="39" ht="24" customHeight="1" spans="4:4">
       <c r="D39" s="5"/>
     </row>
-    <row r="40" spans="4:4" ht="24" customHeight="1">
+    <row r="40" ht="24" customHeight="1" spans="4:4">
       <c r="D40" s="5"/>
     </row>
-    <row r="41" spans="4:4" ht="24" customHeight="1">
+    <row r="41" ht="24" customHeight="1" spans="4:4">
       <c r="D41" s="5"/>
     </row>
-    <row r="42" spans="4:4" ht="24" customHeight="1">
+    <row r="42" ht="24" customHeight="1" spans="4:4">
       <c r="D42" s="5"/>
     </row>
-    <row r="43" spans="4:4" ht="24" customHeight="1">
+    <row r="43" ht="24" customHeight="1" spans="4:4">
       <c r="D43" s="5"/>
     </row>
-    <row r="44" spans="4:4" ht="24" customHeight="1">
+    <row r="44" ht="24" customHeight="1" spans="4:4">
       <c r="D44" s="5"/>
     </row>
-    <row r="45" spans="4:4" ht="24" customHeight="1">
+    <row r="45" ht="24" customHeight="1" spans="4:4">
       <c r="D45" s="5"/>
     </row>
-    <row r="46" spans="4:4" ht="24" customHeight="1">
+    <row r="46" ht="24" customHeight="1" spans="4:4">
       <c r="D46" s="5"/>
     </row>
-    <row r="47" spans="4:4" ht="24" customHeight="1">
+    <row r="47" ht="24" customHeight="1" spans="4:4">
       <c r="D47" s="5"/>
     </row>
-    <row r="48" spans="4:4" ht="24" customHeight="1">
+    <row r="48" ht="24" customHeight="1" spans="4:4">
       <c r="D48" s="5"/>
     </row>
-    <row r="49" spans="4:4" ht="24" customHeight="1">
+    <row r="49" ht="24" customHeight="1" spans="4:4">
       <c r="D49" s="5"/>
     </row>
-    <row r="50" spans="4:4" ht="24" customHeight="1">
+    <row r="50" ht="24" customHeight="1" spans="4:4">
       <c r="D50" s="5"/>
     </row>
-    <row r="51" spans="4:4" ht="24" customHeight="1">
+    <row r="51" ht="24" customHeight="1" spans="4:4">
       <c r="D51" s="5"/>
     </row>
-    <row r="52" spans="4:4" ht="24" customHeight="1">
+    <row r="52" ht="24" customHeight="1" spans="4:4">
       <c r="D52" s="5"/>
     </row>
-    <row r="53" spans="4:4" ht="24" customHeight="1">
+    <row r="53" ht="24" customHeight="1" spans="4:4">
       <c r="D53" s="5"/>
     </row>
-    <row r="54" spans="4:4" ht="24" customHeight="1">
+    <row r="54" ht="24" customHeight="1" spans="4:4">
       <c r="D54" s="5"/>
     </row>
-    <row r="55" spans="4:4" ht="24" customHeight="1">
+    <row r="55" ht="24" customHeight="1" spans="4:4">
       <c r="D55" s="5"/>
     </row>
-    <row r="56" spans="4:4" ht="24" customHeight="1">
+    <row r="56" ht="24" customHeight="1" spans="4:4">
       <c r="D56" s="5"/>
     </row>
-    <row r="57" spans="4:4" ht="24" customHeight="1">
+    <row r="57" ht="24" customHeight="1" spans="4:4">
       <c r="D57" s="5"/>
     </row>
-    <row r="58" spans="4:4" ht="24" customHeight="1">
+    <row r="58" ht="24" customHeight="1" spans="4:4">
       <c r="D58" s="5"/>
     </row>
-    <row r="59" spans="4:4" ht="24" customHeight="1">
+    <row r="59" ht="24" customHeight="1" spans="4:4">
       <c r="D59" s="5"/>
     </row>
-    <row r="60" spans="4:4" ht="24" customHeight="1">
+    <row r="60" ht="24" customHeight="1" spans="4:4">
       <c r="D60" s="5"/>
     </row>
-    <row r="61" spans="4:4" ht="24" customHeight="1">
+    <row r="61" ht="24" customHeight="1" spans="4:4">
       <c r="D61" s="5"/>
     </row>
-    <row r="62" spans="4:4" ht="24" customHeight="1">
+    <row r="62" ht="24" customHeight="1" spans="4:4">
       <c r="D62" s="5"/>
     </row>
-    <row r="63" spans="4:4" ht="24" customHeight="1">
+    <row r="63" ht="24" customHeight="1" spans="4:4">
       <c r="D63" s="5"/>
     </row>
-    <row r="64" spans="4:4" ht="24" customHeight="1">
+    <row r="64" ht="24" customHeight="1" spans="4:4">
       <c r="D64" s="5"/>
     </row>
-    <row r="65" spans="4:4" ht="24" customHeight="1">
+    <row r="65" ht="24" customHeight="1" spans="4:4">
       <c r="D65" s="5"/>
     </row>
-    <row r="66" spans="4:4" ht="24" customHeight="1">
+    <row r="66" ht="24" customHeight="1" spans="4:4">
       <c r="D66" s="5"/>
     </row>
-    <row r="67" spans="4:4" ht="24" customHeight="1">
+    <row r="67" ht="24" customHeight="1" spans="4:4">
       <c r="D67" s="5"/>
     </row>
-    <row r="68" spans="4:4" ht="24" customHeight="1">
+    <row r="68" ht="24" customHeight="1" spans="4:4">
       <c r="D68" s="5"/>
     </row>
-    <row r="69" spans="4:4" ht="24" customHeight="1">
+    <row r="69" ht="24" customHeight="1" spans="4:4">
       <c r="D69" s="5"/>
     </row>
-    <row r="70" spans="4:4" ht="24" customHeight="1">
+    <row r="70" ht="24" customHeight="1" spans="4:4">
       <c r="D70" s="5"/>
     </row>
-    <row r="71" spans="4:4" ht="24" customHeight="1">
+    <row r="71" ht="24" customHeight="1" spans="4:4">
       <c r="D71" s="5"/>
     </row>
-    <row r="72" spans="4:4" ht="24" customHeight="1">
+    <row r="72" ht="24" customHeight="1" spans="4:4">
       <c r="D72" s="5"/>
     </row>
-    <row r="73" spans="4:4" ht="24" customHeight="1">
+    <row r="73" ht="24" customHeight="1" spans="4:4">
       <c r="D73" s="5"/>
     </row>
-    <row r="74" spans="4:4" ht="24" customHeight="1">
+    <row r="74" ht="24" customHeight="1" spans="4:4">
       <c r="D74" s="5"/>
     </row>
-    <row r="75" spans="4:4" ht="24" customHeight="1">
+    <row r="75" ht="24" customHeight="1" spans="4:4">
       <c r="D75" s="5"/>
     </row>
-    <row r="76" spans="4:4" ht="24" customHeight="1">
+    <row r="76" ht="24" customHeight="1" spans="4:4">
       <c r="D76" s="5"/>
     </row>
-    <row r="77" spans="4:4" ht="24" customHeight="1">
+    <row r="77" ht="24" customHeight="1" spans="4:4">
       <c r="D77" s="5"/>
     </row>
-    <row r="78" spans="4:4" ht="24" customHeight="1">
+    <row r="78" ht="24" customHeight="1" spans="4:4">
       <c r="D78" s="5"/>
     </row>
-    <row r="79" spans="4:4" ht="24" customHeight="1">
+    <row r="79" ht="24" customHeight="1" spans="4:4">
       <c r="D79" s="5"/>
     </row>
-    <row r="80" spans="4:4" ht="24" customHeight="1">
+    <row r="80" ht="24" customHeight="1" spans="4:4">
       <c r="D80" s="5"/>
     </row>
-    <row r="81" spans="4:4" ht="24" customHeight="1">
+    <row r="81" ht="24" customHeight="1" spans="4:4">
       <c r="D81" s="5"/>
     </row>
-    <row r="82" spans="4:4" ht="24" customHeight="1">
+    <row r="82" ht="24" customHeight="1" spans="4:4">
       <c r="D82" s="5"/>
     </row>
-    <row r="83" spans="4:4" ht="24" customHeight="1">
+    <row r="83" ht="24" customHeight="1" spans="4:4">
       <c r="D83" s="5"/>
     </row>
-    <row r="84" spans="4:4" ht="24" customHeight="1">
+    <row r="84" ht="24" customHeight="1" spans="4:4">
       <c r="D84" s="5"/>
     </row>
-    <row r="85" spans="4:4" ht="24" customHeight="1">
+    <row r="85" ht="24" customHeight="1" spans="4:4">
       <c r="D85" s="5"/>
     </row>
-    <row r="86" spans="4:4" ht="24" customHeight="1">
+    <row r="86" ht="24" customHeight="1" spans="4:4">
       <c r="D86" s="5"/>
     </row>
-    <row r="87" spans="4:4" ht="24" customHeight="1">
+    <row r="87" ht="24" customHeight="1" spans="4:4">
       <c r="D87" s="5"/>
     </row>
-    <row r="88" spans="4:4" ht="24" customHeight="1">
+    <row r="88" ht="24" customHeight="1" spans="4:4">
       <c r="D88" s="5"/>
     </row>
-    <row r="89" spans="4:4" ht="24" customHeight="1">
+    <row r="89" ht="24" customHeight="1" spans="4:4">
       <c r="D89" s="5"/>
     </row>
-    <row r="90" spans="4:4" ht="24" customHeight="1">
+    <row r="90" ht="24" customHeight="1" spans="4:4">
       <c r="D90" s="5"/>
     </row>
-    <row r="91" spans="4:4" ht="24" customHeight="1">
+    <row r="91" ht="24" customHeight="1" spans="4:4">
       <c r="D91" s="5"/>
     </row>
-    <row r="92" spans="4:4" ht="24" customHeight="1">
+    <row r="92" ht="24" customHeight="1" spans="4:4">
       <c r="D92" s="5"/>
     </row>
-    <row r="93" spans="4:4" ht="24" customHeight="1">
+    <row r="93" ht="24" customHeight="1" spans="4:4">
       <c r="D93" s="5"/>
     </row>
-    <row r="94" spans="4:4" ht="24" customHeight="1">
+    <row r="94" ht="24" customHeight="1" spans="4:4">
       <c r="D94" s="5"/>
     </row>
-    <row r="95" spans="4:4" ht="24" customHeight="1">
+    <row r="95" ht="24" customHeight="1" spans="4:4">
       <c r="D95" s="5"/>
     </row>
-    <row r="96" spans="4:4" ht="24" customHeight="1">
+    <row r="96" ht="24" customHeight="1" spans="4:4">
       <c r="D96" s="5"/>
     </row>
-    <row r="97" spans="4:4" ht="24" customHeight="1">
+    <row r="97" ht="24" customHeight="1" spans="4:4">
       <c r="D97" s="5"/>
     </row>
-    <row r="98" spans="4:4" ht="24" customHeight="1">
+    <row r="98" ht="24" customHeight="1" spans="4:4">
       <c r="D98" s="5"/>
     </row>
-    <row r="99" spans="4:4" ht="24" customHeight="1">
+    <row r="99" ht="24" customHeight="1" spans="4:4">
       <c r="D99" s="5"/>
     </row>
-    <row r="100" spans="4:4" ht="24" customHeight="1">
+    <row r="100" ht="24" customHeight="1" spans="4:4">
       <c r="D100" s="5"/>
     </row>
-    <row r="101" spans="4:4" ht="24" customHeight="1">
+    <row r="101" ht="24" customHeight="1" spans="4:4">
       <c r="D101" s="5"/>
     </row>
-    <row r="102" spans="4:4" ht="24" customHeight="1">
+    <row r="102" ht="24" customHeight="1" spans="4:4">
       <c r="D102" s="5"/>
     </row>
-    <row r="103" spans="4:4" ht="24" customHeight="1">
+    <row r="103" ht="24" customHeight="1" spans="4:4">
       <c r="D103" s="5"/>
     </row>
-    <row r="104" spans="4:4" ht="24" customHeight="1">
+    <row r="104" ht="24" customHeight="1" spans="4:4">
       <c r="D104" s="5"/>
     </row>
-    <row r="105" spans="4:4" ht="24" customHeight="1">
+    <row r="105" ht="24" customHeight="1" spans="4:4">
       <c r="D105" s="5"/>
     </row>
-    <row r="106" spans="4:4" ht="24" customHeight="1">
+    <row r="106" ht="24" customHeight="1" spans="4:4">
       <c r="D106" s="5"/>
     </row>
-    <row r="107" spans="4:4" ht="24" customHeight="1">
+    <row r="107" ht="24" customHeight="1" spans="4:4">
       <c r="D107" s="5"/>
     </row>
-    <row r="108" spans="4:4" ht="24" customHeight="1">
+    <row r="108" ht="24" customHeight="1" spans="4:4">
       <c r="D108" s="5"/>
     </row>
-    <row r="109" spans="4:4" ht="24" customHeight="1">
+    <row r="109" ht="24" customHeight="1" spans="4:4">
       <c r="D109" s="5"/>
     </row>
-    <row r="110" spans="4:4" ht="24" customHeight="1">
+    <row r="110" ht="24" customHeight="1" spans="4:4">
       <c r="D110" s="5"/>
     </row>
-    <row r="111" spans="4:4" ht="24" customHeight="1">
+    <row r="111" ht="24" customHeight="1" spans="4:4">
       <c r="D111" s="5"/>
     </row>
-    <row r="112" spans="4:4" ht="24" customHeight="1">
+    <row r="112" ht="24" customHeight="1" spans="4:4">
       <c r="D112" s="5"/>
     </row>
-    <row r="113" spans="4:4" ht="24" customHeight="1">
+    <row r="113" ht="24" customHeight="1" spans="4:4">
       <c r="D113" s="5"/>
     </row>
-    <row r="114" spans="4:4" ht="24" customHeight="1">
+    <row r="114" ht="24" customHeight="1" spans="4:4">
       <c r="D114" s="5"/>
     </row>
-    <row r="115" spans="4:4" ht="24" customHeight="1">
+    <row r="115" ht="24" customHeight="1" spans="4:4">
       <c r="D115" s="5"/>
     </row>
-    <row r="116" spans="4:4" ht="24" customHeight="1">
+    <row r="116" ht="24" customHeight="1" spans="4:4">
       <c r="D116" s="5"/>
     </row>
-    <row r="117" spans="4:4" ht="24" customHeight="1">
+    <row r="117" ht="24" customHeight="1" spans="4:4">
       <c r="D117" s="5"/>
     </row>
-    <row r="118" spans="4:4" ht="24" customHeight="1">
+    <row r="118" ht="24" customHeight="1" spans="4:4">
       <c r="D118" s="5"/>
     </row>
-    <row r="119" spans="4:4" ht="24" customHeight="1">
+    <row r="119" ht="24" customHeight="1" spans="4:4">
       <c r="D119" s="5"/>
     </row>
-    <row r="120" spans="4:4" ht="24" customHeight="1">
+    <row r="120" ht="24" customHeight="1" spans="4:4">
       <c r="D120" s="5"/>
     </row>
-    <row r="121" spans="4:4" ht="24" customHeight="1">
+    <row r="121" ht="24" customHeight="1" spans="4:4">
       <c r="D121" s="5"/>
     </row>
-    <row r="122" spans="4:4" ht="24" customHeight="1">
+    <row r="122" ht="24" customHeight="1" spans="4:4">
       <c r="D122" s="5"/>
     </row>
-    <row r="123" spans="4:4" ht="24" customHeight="1">
+    <row r="123" ht="24" customHeight="1" spans="4:4">
       <c r="D123" s="5"/>
     </row>
-    <row r="124" spans="4:4" ht="24" customHeight="1">
+    <row r="124" ht="24" customHeight="1" spans="4:4">
       <c r="D124" s="5"/>
     </row>
-    <row r="125" spans="4:4" ht="24" customHeight="1">
+    <row r="125" ht="24" customHeight="1" spans="4:4">
       <c r="D125" s="5"/>
     </row>
-    <row r="126" spans="4:4" ht="24" customHeight="1">
+    <row r="126" ht="24" customHeight="1" spans="4:4">
       <c r="D126" s="5"/>
     </row>
-    <row r="127" spans="4:4" ht="24" customHeight="1">
+    <row r="127" ht="24" customHeight="1" spans="4:4">
       <c r="D127" s="5"/>
     </row>
-    <row r="128" spans="4:4" ht="24" customHeight="1">
+    <row r="128" ht="24" customHeight="1" spans="4:4">
       <c r="D128" s="5"/>
     </row>
-    <row r="129" spans="4:4" ht="24" customHeight="1">
+    <row r="129" ht="24" customHeight="1" spans="4:4">
       <c r="D129" s="5"/>
     </row>
-    <row r="130" spans="4:4" ht="24" customHeight="1">
+    <row r="130" ht="24" customHeight="1" spans="4:4">
       <c r="D130" s="5"/>
     </row>
-    <row r="131" spans="4:4" ht="24" customHeight="1">
+    <row r="131" ht="24" customHeight="1" spans="4:4">
       <c r="D131" s="5"/>
     </row>
-    <row r="132" spans="4:4" ht="24" customHeight="1">
+    <row r="132" ht="24" customHeight="1" spans="4:4">
       <c r="D132" s="5"/>
     </row>
-    <row r="133" spans="4:4" ht="24" customHeight="1">
+    <row r="133" ht="24" customHeight="1" spans="4:4">
       <c r="D133" s="5"/>
     </row>
-    <row r="134" spans="4:4" ht="24" customHeight="1">
+    <row r="134" ht="24" customHeight="1" spans="4:4">
       <c r="D134" s="5"/>
     </row>
-    <row r="135" spans="4:4" ht="24" customHeight="1">
+    <row r="135" ht="24" customHeight="1" spans="4:4">
       <c r="D135" s="5"/>
     </row>
-    <row r="136" spans="4:4" ht="24" customHeight="1">
+    <row r="136" ht="24" customHeight="1" spans="4:4">
       <c r="D136" s="5"/>
     </row>
-    <row r="137" spans="4:4" ht="24" customHeight="1">
+    <row r="137" ht="24" customHeight="1" spans="4:4">
       <c r="D137" s="5"/>
     </row>
-    <row r="138" spans="4:4" ht="24" customHeight="1">
+    <row r="138" ht="24" customHeight="1" spans="4:4">
       <c r="D138" s="5"/>
     </row>
-    <row r="139" spans="4:4" ht="24" customHeight="1">
+    <row r="139" ht="24" customHeight="1" spans="4:4">
       <c r="D139" s="5"/>
     </row>
-    <row r="140" spans="4:4" ht="24" customHeight="1">
+    <row r="140" ht="24" customHeight="1" spans="4:4">
       <c r="D140" s="5"/>
     </row>
-    <row r="141" spans="4:4" ht="24" customHeight="1">
+    <row r="141" ht="24" customHeight="1" spans="4:4">
       <c r="D141" s="5"/>
     </row>
-    <row r="142" spans="4:4" ht="24" customHeight="1">
+    <row r="142" ht="24" customHeight="1" spans="4:4">
       <c r="D142" s="5"/>
     </row>
-    <row r="143" spans="4:4" ht="24" customHeight="1">
+    <row r="143" ht="24" customHeight="1" spans="4:4">
       <c r="D143" s="5"/>
     </row>
-    <row r="144" spans="4:4" ht="24" customHeight="1">
+    <row r="144" ht="24" customHeight="1" spans="4:4">
       <c r="D144" s="5"/>
     </row>
-    <row r="145" spans="4:4" ht="24" customHeight="1">
+    <row r="145" ht="24" customHeight="1" spans="4:4">
       <c r="D145" s="5"/>
     </row>
-    <row r="146" spans="4:4" ht="24" customHeight="1">
+    <row r="146" ht="24" customHeight="1" spans="4:4">
       <c r="D146" s="5"/>
     </row>
-    <row r="147" spans="4:4" ht="24" customHeight="1">
+    <row r="147" ht="24" customHeight="1" spans="4:4">
       <c r="D147" s="5"/>
     </row>
-    <row r="148" spans="4:4" ht="24" customHeight="1">
+    <row r="148" ht="24" customHeight="1" spans="4:4">
       <c r="D148" s="5"/>
     </row>
-    <row r="149" spans="4:4" ht="24" customHeight="1">
+    <row r="149" ht="24" customHeight="1" spans="4:4">
       <c r="D149" s="5"/>
     </row>
-    <row r="150" spans="4:4" ht="24" customHeight="1">
+    <row r="150" ht="24" customHeight="1" spans="4:4">
       <c r="D150" s="5"/>
     </row>
-    <row r="151" spans="4:4" ht="24" customHeight="1">
+    <row r="151" ht="24" customHeight="1" spans="4:4">
       <c r="D151" s="5"/>
     </row>
-    <row r="152" spans="4:4" ht="24" customHeight="1">
+    <row r="152" ht="24" customHeight="1" spans="4:4">
       <c r="D152" s="5"/>
     </row>
-    <row r="153" spans="4:4" ht="24" customHeight="1">
+    <row r="153" ht="24" customHeight="1" spans="4:4">
       <c r="D153" s="5"/>
     </row>
-    <row r="154" spans="4:4" ht="24" customHeight="1">
+    <row r="154" ht="24" customHeight="1" spans="4:4">
       <c r="D154" s="5"/>
     </row>
-    <row r="155" spans="4:4" ht="24" customHeight="1">
+    <row r="155" ht="24" customHeight="1" spans="4:4">
       <c r="D155" s="5"/>
     </row>
-    <row r="156" spans="4:4" ht="24" customHeight="1">
+    <row r="156" ht="24" customHeight="1" spans="4:4">
       <c r="D156" s="5"/>
     </row>
-    <row r="157" spans="4:4" ht="24" customHeight="1">
+    <row r="157" ht="24" customHeight="1" spans="4:4">
       <c r="D157" s="5"/>
     </row>
-    <row r="158" spans="4:4" ht="24" customHeight="1">
+    <row r="158" ht="24" customHeight="1" spans="4:4">
       <c r="D158" s="5"/>
     </row>
-    <row r="159" spans="4:4" ht="24" customHeight="1">
+    <row r="159" ht="24" customHeight="1" spans="4:4">
       <c r="D159" s="5"/>
     </row>
-    <row r="160" spans="4:4" ht="24" customHeight="1">
+    <row r="160" ht="24" customHeight="1" spans="4:4">
       <c r="D160" s="5"/>
     </row>
-    <row r="161" spans="4:4" ht="24" customHeight="1">
+    <row r="161" ht="24" customHeight="1" spans="4:4">
       <c r="D161" s="5"/>
     </row>
-    <row r="162" spans="4:4" ht="24" customHeight="1">
+    <row r="162" ht="24" customHeight="1" spans="4:4">
       <c r="D162" s="5"/>
     </row>
-    <row r="163" spans="4:4" ht="24" customHeight="1">
+    <row r="163" ht="24" customHeight="1" spans="4:4">
       <c r="D163" s="5"/>
     </row>
-    <row r="164" spans="4:4" ht="24" customHeight="1">
+    <row r="164" ht="24" customHeight="1" spans="4:4">
       <c r="D164" s="5"/>
     </row>
-    <row r="165" spans="4:4" ht="24" customHeight="1">
+    <row r="165" ht="24" customHeight="1" spans="4:4">
       <c r="D165" s="5"/>
     </row>
-    <row r="166" spans="4:4" ht="24" customHeight="1">
+    <row r="166" ht="24" customHeight="1" spans="4:4">
       <c r="D166" s="5"/>
     </row>
-    <row r="167" spans="4:4" ht="24" customHeight="1">
+    <row r="167" ht="24" customHeight="1" spans="4:4">
       <c r="D167" s="5"/>
     </row>
-    <row r="168" spans="4:4" ht="24" customHeight="1">
+    <row r="168" ht="24" customHeight="1" spans="4:4">
       <c r="D168" s="5"/>
     </row>
-    <row r="169" spans="4:4" ht="24" customHeight="1">
+    <row r="169" ht="24" customHeight="1" spans="4:4">
       <c r="D169" s="5"/>
     </row>
-    <row r="170" spans="4:4" ht="24" customHeight="1">
+    <row r="170" ht="24" customHeight="1" spans="4:4">
       <c r="D170" s="5"/>
     </row>
-    <row r="171" spans="4:4" ht="24" customHeight="1">
+    <row r="171" ht="24" customHeight="1" spans="4:4">
       <c r="D171" s="5"/>
     </row>
-    <row r="172" spans="4:4" ht="24" customHeight="1">
+    <row r="172" ht="24" customHeight="1" spans="4:4">
       <c r="D172" s="5"/>
     </row>
-    <row r="173" spans="4:4" ht="24" customHeight="1">
+    <row r="173" ht="24" customHeight="1" spans="4:4">
       <c r="D173" s="5"/>
     </row>
-    <row r="174" spans="4:4" ht="24" customHeight="1">
+    <row r="174" ht="24" customHeight="1" spans="4:4">
       <c r="D174" s="5"/>
     </row>
-    <row r="175" spans="4:4" ht="24" customHeight="1">
+    <row r="175" ht="24" customHeight="1" spans="4:4">
       <c r="D175" s="5"/>
     </row>
-    <row r="176" spans="4:4" ht="24" customHeight="1">
+    <row r="176" ht="24" customHeight="1" spans="4:4">
       <c r="D176" s="5"/>
     </row>
-    <row r="177" spans="4:4" ht="24" customHeight="1">
+    <row r="177" ht="24" customHeight="1" spans="4:4">
       <c r="D177" s="5"/>
     </row>
-    <row r="178" spans="4:4" ht="24" customHeight="1">
+    <row r="178" ht="24" customHeight="1" spans="4:4">
       <c r="D178" s="5"/>
     </row>
-    <row r="179" spans="4:4" ht="24" customHeight="1">
+    <row r="179" ht="24" customHeight="1" spans="4:4">
       <c r="D179" s="5"/>
     </row>
-    <row r="180" spans="4:4" ht="24" customHeight="1">
+    <row r="180" ht="24" customHeight="1" spans="4:4">
       <c r="D180" s="5"/>
     </row>
-    <row r="181" spans="4:4" ht="24" customHeight="1">
+    <row r="181" ht="24" customHeight="1" spans="4:4">
       <c r="D181" s="5"/>
     </row>
-    <row r="182" spans="4:4" ht="24" customHeight="1">
+    <row r="182" ht="24" customHeight="1" spans="4:4">
       <c r="D182" s="5"/>
     </row>
-    <row r="183" spans="4:4" ht="24" customHeight="1">
+    <row r="183" ht="24" customHeight="1" spans="4:4">
       <c r="D183" s="5"/>
     </row>
-    <row r="184" spans="4:4" ht="24" customHeight="1">
+    <row r="184" ht="24" customHeight="1" spans="4:4">
       <c r="D184" s="5"/>
     </row>
-    <row r="185" spans="4:4" ht="24" customHeight="1">
+    <row r="185" ht="24" customHeight="1" spans="4:4">
       <c r="D185" s="5"/>
     </row>
-    <row r="186" spans="4:4" ht="24" customHeight="1">
+    <row r="186" ht="24" customHeight="1" spans="4:4">
       <c r="D186" s="5"/>
     </row>
-    <row r="187" spans="4:4" ht="24" customHeight="1">
+    <row r="187" ht="24" customHeight="1" spans="4:4">
       <c r="D187" s="5"/>
     </row>
-    <row r="188" spans="4:4" ht="24" customHeight="1">
+    <row r="188" ht="24" customHeight="1" spans="4:4">
       <c r="D188" s="5"/>
     </row>
-    <row r="189" spans="4:4" ht="24" customHeight="1">
+    <row r="189" ht="24" customHeight="1" spans="4:4">
       <c r="D189" s="5"/>
     </row>
-    <row r="190" spans="4:4" ht="24" customHeight="1">
+    <row r="190" ht="24" customHeight="1" spans="4:4">
       <c r="D190" s="5"/>
     </row>
-    <row r="191" spans="4:4" ht="24" customHeight="1">
+    <row r="191" ht="24" customHeight="1" spans="4:4">
       <c r="D191" s="5"/>
     </row>
-    <row r="192" spans="4:4" ht="24" customHeight="1">
+    <row r="192" ht="24" customHeight="1" spans="4:4">
       <c r="D192" s="5"/>
     </row>
-    <row r="193" spans="4:4" ht="24" customHeight="1">
+    <row r="193" ht="24" customHeight="1" spans="4:4">
       <c r="D193" s="5"/>
     </row>
-    <row r="194" spans="4:4" ht="24" customHeight="1">
+    <row r="194" ht="24" customHeight="1" spans="4:4">
       <c r="D194" s="5"/>
     </row>
-    <row r="195" spans="4:4" ht="24" customHeight="1">
+    <row r="195" ht="24" customHeight="1" spans="4:4">
       <c r="D195" s="5"/>
     </row>
-    <row r="196" spans="4:4" ht="24" customHeight="1">
+    <row r="196" ht="24" customHeight="1" spans="4:4">
       <c r="D196" s="5"/>
     </row>
-    <row r="197" spans="4:4" ht="24" customHeight="1">
+    <row r="197" ht="24" customHeight="1" spans="4:4">
       <c r="D197" s="5"/>
     </row>
-    <row r="198" spans="4:4" ht="24" customHeight="1">
+    <row r="198" ht="24" customHeight="1" spans="4:4">
       <c r="D198" s="5"/>
     </row>
-    <row r="199" spans="4:4" ht="24" customHeight="1">
+    <row r="199" ht="24" customHeight="1" spans="4:4">
       <c r="D199" s="5"/>
     </row>
-    <row r="200" spans="4:4" ht="24" customHeight="1">
+    <row r="200" ht="24" customHeight="1" spans="4:4">
       <c r="D200" s="5"/>
     </row>
-    <row r="201" spans="4:4" ht="24" customHeight="1">
+    <row r="201" ht="24" customHeight="1" spans="4:4">
       <c r="D201" s="5"/>
     </row>
-    <row r="202" spans="4:4" ht="24" customHeight="1">
+    <row r="202" ht="24" customHeight="1" spans="4:4">
       <c r="D202" s="5"/>
     </row>
-    <row r="203" spans="4:4" ht="24" customHeight="1">
+    <row r="203" ht="24" customHeight="1" spans="4:4">
       <c r="D203" s="5"/>
     </row>
-    <row r="204" spans="4:4" ht="24" customHeight="1">
+    <row r="204" ht="24" customHeight="1" spans="4:4">
       <c r="D204" s="5"/>
     </row>
-    <row r="205" spans="4:4" ht="24" customHeight="1">
+    <row r="205" ht="24" customHeight="1" spans="4:4">
       <c r="D205" s="5"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:E200"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.83653846153846" defaultRowHeight="16.8" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="26" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="25.75" customHeight="1">
+    <row r="1" ht="25.75" customHeight="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1366,91 +2008,91 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="24" customHeight="1">
-      <c r="B2" s="4" t="s">
+    <row r="2" ht="24" customHeight="1" spans="2:4">
+      <c r="B2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2" s="4">
         <v>7</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="24" customHeight="1">
-      <c r="B3" s="4" t="s">
+    <row r="3" ht="24" customHeight="1" spans="2:4">
+      <c r="B3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="3">
         <v>20</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="24" customHeight="1">
-      <c r="B4" s="4" t="s">
+    <row r="4" ht="24" customHeight="1" spans="2:4">
+      <c r="B4" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="3">
         <v>20</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="24" customHeight="1">
-      <c r="B5" s="4" t="s">
+    <row r="5" ht="24" customHeight="1" spans="2:4">
+      <c r="B5" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="3">
         <v>36</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="39.5" customHeight="1">
-      <c r="B6" s="4" t="s">
+    <row r="6" ht="39.5" customHeight="1" spans="2:4">
+      <c r="B6" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="3" t="s">
         <v>22</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="53.25" customHeight="1">
-      <c r="B7" s="4" t="s">
+    <row r="7" ht="53.25" customHeight="1" spans="2:4">
+      <c r="B7" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="3" t="s">
         <v>24</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="24" customHeight="1">
-      <c r="B8" s="4" t="s">
+    <row r="8" ht="24" customHeight="1" spans="2:4">
+      <c r="B8" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="3">
         <v>43</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="24" customHeight="1"/>
-    <row r="10" spans="1:5" ht="24" customHeight="1"/>
-    <row r="11" spans="1:5" ht="24" customHeight="1"/>
-    <row r="12" spans="1:5" ht="24" customHeight="1"/>
-    <row r="13" spans="1:5" ht="24" customHeight="1"/>
-    <row r="14" spans="1:5" ht="24" customHeight="1"/>
-    <row r="15" spans="1:5" ht="24" customHeight="1"/>
-    <row r="16" spans="1:5" ht="24" customHeight="1"/>
+    <row r="9" ht="24" customHeight="1"/>
+    <row r="10" ht="24" customHeight="1"/>
+    <row r="11" ht="24" customHeight="1"/>
+    <row r="12" ht="24" customHeight="1"/>
+    <row r="13" ht="24" customHeight="1"/>
+    <row r="14" ht="24" customHeight="1"/>
+    <row r="15" ht="24" customHeight="1"/>
+    <row r="16" ht="24" customHeight="1"/>
     <row r="17" ht="24" customHeight="1"/>
     <row r="18" ht="24" customHeight="1"/>
     <row r="19" ht="24" customHeight="1"/>
@@ -1636,26 +2278,29 @@
     <row r="199" ht="24" customHeight="1"/>
     <row r="200" ht="24" customHeight="1"/>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:Z202"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.83653846153846" defaultRowHeight="16.8"/>
   <cols>
     <col min="1" max="3" width="20" customWidth="1"/>
-    <col min="4" max="4" width="89.83203125" customWidth="1"/>
+    <col min="4" max="4" width="89.8365384615385" customWidth="1"/>
     <col min="5" max="26" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="25.75" customHeight="1">
+    <row r="1" ht="25.75" customHeight="1" spans="1:26">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1671,153 +2316,153 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="3"/>
-      <c r="S1" s="3"/>
-      <c r="T1" s="3"/>
-      <c r="U1" s="3"/>
-      <c r="V1" s="3"/>
-      <c r="W1" s="3"/>
-      <c r="X1" s="3"/>
-      <c r="Y1" s="3"/>
-      <c r="Z1" s="3"/>
-    </row>
-    <row r="2" spans="1:26" ht="39.5" customHeight="1">
-      <c r="B2" s="4" t="s">
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
+      <c r="P1" s="8"/>
+      <c r="Q1" s="8"/>
+      <c r="R1" s="8"/>
+      <c r="S1" s="8"/>
+      <c r="T1" s="8"/>
+      <c r="U1" s="8"/>
+      <c r="V1" s="8"/>
+      <c r="W1" s="8"/>
+      <c r="X1" s="8"/>
+      <c r="Y1" s="8"/>
+      <c r="Z1" s="8"/>
+    </row>
+    <row r="2" ht="39.5" customHeight="1" spans="2:4">
+      <c r="B2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2" s="4">
         <v>7</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="53.25" customHeight="1">
-      <c r="B3" s="4" t="s">
+    <row r="3" ht="53.25" customHeight="1" spans="2:4">
+      <c r="B3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="3">
         <v>20</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:26" ht="39.5" customHeight="1">
-      <c r="B4" s="4" t="s">
+    <row r="4" ht="39.5" customHeight="1" spans="2:4">
+      <c r="B4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="3">
         <v>20</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:26" ht="39.5" customHeight="1">
-      <c r="B5" s="4" t="s">
+    <row r="5" ht="39.5" customHeight="1" spans="2:4">
+      <c r="B5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="3">
         <v>24</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:26" ht="25.75" customHeight="1">
-      <c r="B6" s="4" t="s">
+    <row r="6" ht="25.75" customHeight="1" spans="2:4">
+      <c r="B6" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="3">
         <v>36</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:26" ht="25.75" customHeight="1">
-      <c r="B7" s="4" t="s">
+    <row r="7" ht="25.75" customHeight="1" spans="2:4">
+      <c r="B7" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="3">
         <v>38</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:26" ht="39.5" customHeight="1">
-      <c r="B8" s="4" t="s">
+    <row r="8" ht="39.5" customHeight="1" spans="2:4">
+      <c r="B8" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="3">
         <v>39</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:26" ht="25.75" customHeight="1">
-      <c r="B9" s="4" t="s">
+    <row r="9" ht="25.75" customHeight="1" spans="2:4">
+      <c r="B9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="3">
         <v>40</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:26" ht="25.75" customHeight="1">
-      <c r="B10" s="4" t="s">
+    <row r="10" ht="25.75" customHeight="1" spans="2:4">
+      <c r="B10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="3">
         <v>41</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:26" ht="39.5" customHeight="1">
-      <c r="B11" s="4" t="s">
+    <row r="11" ht="39.5" customHeight="1" spans="2:4">
+      <c r="B11" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="3">
         <v>42</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:26" ht="25.75" customHeight="1">
-      <c r="B12" s="4" t="s">
+    <row r="12" ht="25.75" customHeight="1" spans="2:4">
+      <c r="B12" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="3">
         <v>43</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:26" ht="24" customHeight="1"/>
-    <row r="14" spans="1:26" ht="24" customHeight="1"/>
-    <row r="15" spans="1:26" ht="24" customHeight="1"/>
-    <row r="16" spans="1:26" ht="24" customHeight="1"/>
+    <row r="13" ht="24" customHeight="1"/>
+    <row r="14" ht="24" customHeight="1"/>
+    <row r="15" ht="24" customHeight="1"/>
+    <row r="16" ht="24" customHeight="1"/>
     <row r="17" ht="24" customHeight="1"/>
     <row r="18" ht="24" customHeight="1"/>
     <row r="19" ht="24" customHeight="1"/>
@@ -2005,32 +2650,33 @@
     <row r="201" ht="24" customHeight="1"/>
     <row r="202" ht="24" customHeight="1"/>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:F200"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.83653846153846" defaultRowHeight="16.8" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="4.33203125" customWidth="1"/>
+    <col min="1" max="1" width="4.33653846153846" customWidth="1"/>
     <col min="2" max="2" width="33.5" customWidth="1"/>
-    <col min="3" max="3" width="16.1640625" customWidth="1"/>
+    <col min="3" max="3" width="16.1634615384615" customWidth="1"/>
     <col min="4" max="4" width="55.5" customWidth="1"/>
     <col min="5" max="5" width="43" customWidth="1"/>
-    <col min="6" max="6" width="54.1640625" customWidth="1"/>
+    <col min="6" max="6" width="54.1634615384615" customWidth="1"/>
     <col min="7" max="26" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="25.75" customHeight="1">
+    <row r="1" ht="25.75" customHeight="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2044,119 +2690,119 @@
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F1" s="8" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="94.25" customHeight="1">
-      <c r="B2" s="4" t="s">
+      <c r="F1" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" ht="94.25" customHeight="1" spans="2:6">
+      <c r="B2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2" s="4">
         <v>7</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="108" customHeight="1">
-      <c r="B3" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" ht="108" customHeight="1" spans="2:6">
+      <c r="B3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="3">
         <v>20</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>6</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="53.25" customHeight="1">
-      <c r="B4" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" ht="53.25" customHeight="1" spans="2:6">
+      <c r="B4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="3">
         <v>20</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="80.5" customHeight="1">
-      <c r="B5" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" ht="80.5" customHeight="1" spans="2:6">
+      <c r="B5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="3">
         <v>24</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="39.5" customHeight="1">
-      <c r="B6" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" ht="39.5" customHeight="1" spans="2:6">
+      <c r="B6" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="3">
         <v>36</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="6" t="s">
         <v>27</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="94.25" customHeight="1">
-      <c r="B7" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" ht="94.25" customHeight="1" spans="2:6">
+      <c r="B7" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="3">
         <v>38</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="66.75" customHeight="1">
-      <c r="B8" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" ht="66.75" customHeight="1" spans="2:6">
+      <c r="B8" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="3">
         <v>39</v>
       </c>
       <c r="D8" s="5" t="s">
@@ -2165,28 +2811,28 @@
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
     </row>
-    <row r="9" spans="1:6" ht="94.25" customHeight="1">
-      <c r="B9" s="4" t="s">
+    <row r="9" ht="94.25" customHeight="1" spans="2:6">
+      <c r="B9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="3">
         <v>40</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="39.5" customHeight="1">
-      <c r="B10" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" ht="39.5" customHeight="1" spans="2:6">
+      <c r="B10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="3">
         <v>41</v>
       </c>
       <c r="D10" s="5" t="s">
@@ -2195,791 +2841,791 @@
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
     </row>
-    <row r="11" spans="1:6" ht="66.75" customHeight="1">
-      <c r="B11" s="4" t="s">
+    <row r="11" ht="66.75" customHeight="1" spans="2:6">
+      <c r="B11" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="3">
         <v>42</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
     </row>
-    <row r="12" spans="1:6" ht="94.25" customHeight="1">
-      <c r="B12" s="4" t="s">
+    <row r="12" ht="94.25" customHeight="1" spans="2:6">
+      <c r="B12" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="3">
         <v>43</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>15</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="24" customHeight="1">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" ht="24" customHeight="1" spans="5:6">
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
     </row>
-    <row r="14" spans="1:6" ht="24" customHeight="1">
+    <row r="14" ht="24" customHeight="1" spans="5:6">
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
     </row>
-    <row r="15" spans="1:6" ht="24" customHeight="1">
+    <row r="15" ht="24" customHeight="1" spans="5:6">
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
     </row>
-    <row r="16" spans="1:6" ht="24" customHeight="1">
+    <row r="16" ht="24" customHeight="1" spans="5:6">
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
     </row>
-    <row r="17" spans="5:6" ht="24" customHeight="1">
+    <row r="17" ht="24" customHeight="1" spans="5:6">
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
     </row>
-    <row r="18" spans="5:6" ht="24" customHeight="1">
+    <row r="18" ht="24" customHeight="1" spans="5:6">
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
     </row>
-    <row r="19" spans="5:6" ht="24" customHeight="1">
+    <row r="19" ht="24" customHeight="1" spans="5:6">
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
     </row>
-    <row r="20" spans="5:6" ht="24" customHeight="1">
+    <row r="20" ht="24" customHeight="1" spans="5:6">
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
     </row>
-    <row r="21" spans="5:6" ht="24" customHeight="1">
+    <row r="21" ht="24" customHeight="1" spans="5:6">
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
     </row>
-    <row r="22" spans="5:6" ht="24" customHeight="1">
+    <row r="22" ht="24" customHeight="1" spans="5:6">
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
     </row>
-    <row r="23" spans="5:6" ht="24" customHeight="1">
+    <row r="23" ht="24" customHeight="1" spans="5:6">
       <c r="E23" s="5"/>
       <c r="F23" s="5"/>
     </row>
-    <row r="24" spans="5:6" ht="24" customHeight="1">
+    <row r="24" ht="24" customHeight="1" spans="5:6">
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
     </row>
-    <row r="25" spans="5:6" ht="24" customHeight="1">
+    <row r="25" ht="24" customHeight="1" spans="5:6">
       <c r="E25" s="5"/>
       <c r="F25" s="5"/>
     </row>
-    <row r="26" spans="5:6" ht="24" customHeight="1">
+    <row r="26" ht="24" customHeight="1" spans="5:6">
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
     </row>
-    <row r="27" spans="5:6" ht="24" customHeight="1">
+    <row r="27" ht="24" customHeight="1" spans="5:6">
       <c r="E27" s="5"/>
       <c r="F27" s="5"/>
     </row>
-    <row r="28" spans="5:6" ht="24" customHeight="1">
+    <row r="28" ht="24" customHeight="1" spans="5:6">
       <c r="E28" s="5"/>
       <c r="F28" s="5"/>
     </row>
-    <row r="29" spans="5:6" ht="24" customHeight="1">
+    <row r="29" ht="24" customHeight="1" spans="5:6">
       <c r="E29" s="5"/>
       <c r="F29" s="5"/>
     </row>
-    <row r="30" spans="5:6" ht="24" customHeight="1">
+    <row r="30" ht="24" customHeight="1" spans="5:6">
       <c r="E30" s="5"/>
       <c r="F30" s="5"/>
     </row>
-    <row r="31" spans="5:6" ht="24" customHeight="1">
+    <row r="31" ht="24" customHeight="1" spans="5:6">
       <c r="E31" s="5"/>
       <c r="F31" s="5"/>
     </row>
-    <row r="32" spans="5:6" ht="24" customHeight="1">
+    <row r="32" ht="24" customHeight="1" spans="5:6">
       <c r="E32" s="5"/>
       <c r="F32" s="5"/>
     </row>
-    <row r="33" spans="5:6" ht="24" customHeight="1">
+    <row r="33" ht="24" customHeight="1" spans="5:6">
       <c r="E33" s="5"/>
       <c r="F33" s="5"/>
     </row>
-    <row r="34" spans="5:6" ht="24" customHeight="1">
+    <row r="34" ht="24" customHeight="1" spans="5:6">
       <c r="E34" s="5"/>
       <c r="F34" s="5"/>
     </row>
-    <row r="35" spans="5:6" ht="24" customHeight="1">
+    <row r="35" ht="24" customHeight="1" spans="5:6">
       <c r="E35" s="5"/>
       <c r="F35" s="5"/>
     </row>
-    <row r="36" spans="5:6" ht="24" customHeight="1">
+    <row r="36" ht="24" customHeight="1" spans="5:6">
       <c r="E36" s="5"/>
       <c r="F36" s="5"/>
     </row>
-    <row r="37" spans="5:6" ht="24" customHeight="1">
+    <row r="37" ht="24" customHeight="1" spans="5:6">
       <c r="E37" s="5"/>
       <c r="F37" s="5"/>
     </row>
-    <row r="38" spans="5:6" ht="24" customHeight="1">
+    <row r="38" ht="24" customHeight="1" spans="5:6">
       <c r="E38" s="5"/>
       <c r="F38" s="5"/>
     </row>
-    <row r="39" spans="5:6" ht="24" customHeight="1">
+    <row r="39" ht="24" customHeight="1" spans="5:6">
       <c r="E39" s="5"/>
       <c r="F39" s="5"/>
     </row>
-    <row r="40" spans="5:6" ht="24" customHeight="1">
+    <row r="40" ht="24" customHeight="1" spans="5:6">
       <c r="E40" s="5"/>
       <c r="F40" s="5"/>
     </row>
-    <row r="41" spans="5:6" ht="24" customHeight="1">
+    <row r="41" ht="24" customHeight="1" spans="5:6">
       <c r="E41" s="5"/>
       <c r="F41" s="5"/>
     </row>
-    <row r="42" spans="5:6" ht="24" customHeight="1">
+    <row r="42" ht="24" customHeight="1" spans="5:6">
       <c r="E42" s="5"/>
       <c r="F42" s="5"/>
     </row>
-    <row r="43" spans="5:6" ht="24" customHeight="1">
+    <row r="43" ht="24" customHeight="1" spans="5:6">
       <c r="E43" s="5"/>
       <c r="F43" s="5"/>
     </row>
-    <row r="44" spans="5:6" ht="24" customHeight="1">
+    <row r="44" ht="24" customHeight="1" spans="5:6">
       <c r="E44" s="5"/>
       <c r="F44" s="5"/>
     </row>
-    <row r="45" spans="5:6" ht="24" customHeight="1">
+    <row r="45" ht="24" customHeight="1" spans="5:6">
       <c r="E45" s="5"/>
       <c r="F45" s="5"/>
     </row>
-    <row r="46" spans="5:6" ht="24" customHeight="1">
+    <row r="46" ht="24" customHeight="1" spans="5:6">
       <c r="E46" s="5"/>
       <c r="F46" s="5"/>
     </row>
-    <row r="47" spans="5:6" ht="24" customHeight="1">
+    <row r="47" ht="24" customHeight="1" spans="5:6">
       <c r="E47" s="5"/>
       <c r="F47" s="5"/>
     </row>
-    <row r="48" spans="5:6" ht="24" customHeight="1">
+    <row r="48" ht="24" customHeight="1" spans="5:6">
       <c r="E48" s="5"/>
       <c r="F48" s="5"/>
     </row>
-    <row r="49" spans="5:6" ht="24" customHeight="1">
+    <row r="49" ht="24" customHeight="1" spans="5:6">
       <c r="E49" s="5"/>
       <c r="F49" s="5"/>
     </row>
-    <row r="50" spans="5:6" ht="24" customHeight="1">
+    <row r="50" ht="24" customHeight="1" spans="5:6">
       <c r="E50" s="5"/>
       <c r="F50" s="5"/>
     </row>
-    <row r="51" spans="5:6" ht="24" customHeight="1">
+    <row r="51" ht="24" customHeight="1" spans="5:6">
       <c r="E51" s="5"/>
       <c r="F51" s="5"/>
     </row>
-    <row r="52" spans="5:6" ht="24" customHeight="1">
+    <row r="52" ht="24" customHeight="1" spans="5:6">
       <c r="E52" s="5"/>
       <c r="F52" s="5"/>
     </row>
-    <row r="53" spans="5:6" ht="24" customHeight="1">
+    <row r="53" ht="24" customHeight="1" spans="5:6">
       <c r="E53" s="5"/>
       <c r="F53" s="5"/>
     </row>
-    <row r="54" spans="5:6" ht="24" customHeight="1">
+    <row r="54" ht="24" customHeight="1" spans="5:6">
       <c r="E54" s="5"/>
       <c r="F54" s="5"/>
     </row>
-    <row r="55" spans="5:6" ht="24" customHeight="1">
+    <row r="55" ht="24" customHeight="1" spans="5:6">
       <c r="E55" s="5"/>
       <c r="F55" s="5"/>
     </row>
-    <row r="56" spans="5:6" ht="24" customHeight="1">
+    <row r="56" ht="24" customHeight="1" spans="5:6">
       <c r="E56" s="5"/>
       <c r="F56" s="5"/>
     </row>
-    <row r="57" spans="5:6" ht="24" customHeight="1">
+    <row r="57" ht="24" customHeight="1" spans="5:6">
       <c r="E57" s="5"/>
       <c r="F57" s="5"/>
     </row>
-    <row r="58" spans="5:6" ht="24" customHeight="1">
+    <row r="58" ht="24" customHeight="1" spans="5:6">
       <c r="E58" s="5"/>
       <c r="F58" s="5"/>
     </row>
-    <row r="59" spans="5:6" ht="24" customHeight="1">
+    <row r="59" ht="24" customHeight="1" spans="5:6">
       <c r="E59" s="5"/>
       <c r="F59" s="5"/>
     </row>
-    <row r="60" spans="5:6" ht="24" customHeight="1">
+    <row r="60" ht="24" customHeight="1" spans="5:6">
       <c r="E60" s="5"/>
       <c r="F60" s="5"/>
     </row>
-    <row r="61" spans="5:6" ht="24" customHeight="1">
+    <row r="61" ht="24" customHeight="1" spans="5:6">
       <c r="E61" s="5"/>
       <c r="F61" s="5"/>
     </row>
-    <row r="62" spans="5:6" ht="24" customHeight="1">
+    <row r="62" ht="24" customHeight="1" spans="5:6">
       <c r="E62" s="5"/>
       <c r="F62" s="5"/>
     </row>
-    <row r="63" spans="5:6" ht="24" customHeight="1">
+    <row r="63" ht="24" customHeight="1" spans="5:6">
       <c r="E63" s="5"/>
       <c r="F63" s="5"/>
     </row>
-    <row r="64" spans="5:6" ht="24" customHeight="1">
+    <row r="64" ht="24" customHeight="1" spans="5:6">
       <c r="E64" s="5"/>
       <c r="F64" s="5"/>
     </row>
-    <row r="65" spans="5:6" ht="24" customHeight="1">
+    <row r="65" ht="24" customHeight="1" spans="5:6">
       <c r="E65" s="5"/>
       <c r="F65" s="5"/>
     </row>
-    <row r="66" spans="5:6" ht="24" customHeight="1">
+    <row r="66" ht="24" customHeight="1" spans="5:6">
       <c r="E66" s="5"/>
       <c r="F66" s="5"/>
     </row>
-    <row r="67" spans="5:6" ht="24" customHeight="1">
+    <row r="67" ht="24" customHeight="1" spans="5:6">
       <c r="E67" s="5"/>
       <c r="F67" s="5"/>
     </row>
-    <row r="68" spans="5:6" ht="24" customHeight="1">
+    <row r="68" ht="24" customHeight="1" spans="5:6">
       <c r="E68" s="5"/>
       <c r="F68" s="5"/>
     </row>
-    <row r="69" spans="5:6" ht="24" customHeight="1">
+    <row r="69" ht="24" customHeight="1" spans="5:6">
       <c r="E69" s="5"/>
       <c r="F69" s="5"/>
     </row>
-    <row r="70" spans="5:6" ht="24" customHeight="1">
+    <row r="70" ht="24" customHeight="1" spans="5:6">
       <c r="E70" s="5"/>
       <c r="F70" s="5"/>
     </row>
-    <row r="71" spans="5:6" ht="24" customHeight="1">
+    <row r="71" ht="24" customHeight="1" spans="5:6">
       <c r="E71" s="5"/>
       <c r="F71" s="5"/>
     </row>
-    <row r="72" spans="5:6" ht="24" customHeight="1">
+    <row r="72" ht="24" customHeight="1" spans="5:6">
       <c r="E72" s="5"/>
       <c r="F72" s="5"/>
     </row>
-    <row r="73" spans="5:6" ht="24" customHeight="1">
+    <row r="73" ht="24" customHeight="1" spans="5:6">
       <c r="E73" s="5"/>
       <c r="F73" s="5"/>
     </row>
-    <row r="74" spans="5:6" ht="24" customHeight="1">
+    <row r="74" ht="24" customHeight="1" spans="5:6">
       <c r="E74" s="5"/>
       <c r="F74" s="5"/>
     </row>
-    <row r="75" spans="5:6" ht="24" customHeight="1">
+    <row r="75" ht="24" customHeight="1" spans="5:6">
       <c r="E75" s="5"/>
       <c r="F75" s="5"/>
     </row>
-    <row r="76" spans="5:6" ht="24" customHeight="1">
+    <row r="76" ht="24" customHeight="1" spans="5:6">
       <c r="E76" s="5"/>
       <c r="F76" s="5"/>
     </row>
-    <row r="77" spans="5:6" ht="24" customHeight="1">
+    <row r="77" ht="24" customHeight="1" spans="5:6">
       <c r="E77" s="5"/>
       <c r="F77" s="5"/>
     </row>
-    <row r="78" spans="5:6" ht="24" customHeight="1">
+    <row r="78" ht="24" customHeight="1" spans="5:6">
       <c r="E78" s="5"/>
       <c r="F78" s="5"/>
     </row>
-    <row r="79" spans="5:6" ht="24" customHeight="1">
+    <row r="79" ht="24" customHeight="1" spans="5:6">
       <c r="E79" s="5"/>
       <c r="F79" s="5"/>
     </row>
-    <row r="80" spans="5:6" ht="24" customHeight="1">
+    <row r="80" ht="24" customHeight="1" spans="5:6">
       <c r="E80" s="5"/>
       <c r="F80" s="5"/>
     </row>
-    <row r="81" spans="5:6" ht="24" customHeight="1">
+    <row r="81" ht="24" customHeight="1" spans="5:6">
       <c r="E81" s="5"/>
       <c r="F81" s="5"/>
     </row>
-    <row r="82" spans="5:6" ht="24" customHeight="1">
+    <row r="82" ht="24" customHeight="1" spans="5:6">
       <c r="E82" s="5"/>
       <c r="F82" s="5"/>
     </row>
-    <row r="83" spans="5:6" ht="24" customHeight="1">
+    <row r="83" ht="24" customHeight="1" spans="5:6">
       <c r="E83" s="5"/>
       <c r="F83" s="5"/>
     </row>
-    <row r="84" spans="5:6" ht="24" customHeight="1">
+    <row r="84" ht="24" customHeight="1" spans="5:6">
       <c r="E84" s="5"/>
       <c r="F84" s="5"/>
     </row>
-    <row r="85" spans="5:6" ht="24" customHeight="1">
+    <row r="85" ht="24" customHeight="1" spans="5:6">
       <c r="E85" s="5"/>
       <c r="F85" s="5"/>
     </row>
-    <row r="86" spans="5:6" ht="24" customHeight="1">
+    <row r="86" ht="24" customHeight="1" spans="5:6">
       <c r="E86" s="5"/>
       <c r="F86" s="5"/>
     </row>
-    <row r="87" spans="5:6" ht="24" customHeight="1">
+    <row r="87" ht="24" customHeight="1" spans="5:6">
       <c r="E87" s="5"/>
       <c r="F87" s="5"/>
     </row>
-    <row r="88" spans="5:6" ht="24" customHeight="1">
+    <row r="88" ht="24" customHeight="1" spans="5:6">
       <c r="E88" s="5"/>
       <c r="F88" s="5"/>
     </row>
-    <row r="89" spans="5:6" ht="24" customHeight="1">
+    <row r="89" ht="24" customHeight="1" spans="5:6">
       <c r="E89" s="5"/>
       <c r="F89" s="5"/>
     </row>
-    <row r="90" spans="5:6" ht="24" customHeight="1">
+    <row r="90" ht="24" customHeight="1" spans="5:6">
       <c r="E90" s="5"/>
       <c r="F90" s="5"/>
     </row>
-    <row r="91" spans="5:6" ht="24" customHeight="1">
+    <row r="91" ht="24" customHeight="1" spans="5:6">
       <c r="E91" s="5"/>
       <c r="F91" s="5"/>
     </row>
-    <row r="92" spans="5:6" ht="24" customHeight="1">
+    <row r="92" ht="24" customHeight="1" spans="5:6">
       <c r="E92" s="5"/>
       <c r="F92" s="5"/>
     </row>
-    <row r="93" spans="5:6" ht="24" customHeight="1">
+    <row r="93" ht="24" customHeight="1" spans="5:6">
       <c r="E93" s="5"/>
       <c r="F93" s="5"/>
     </row>
-    <row r="94" spans="5:6" ht="24" customHeight="1">
+    <row r="94" ht="24" customHeight="1" spans="5:6">
       <c r="E94" s="5"/>
       <c r="F94" s="5"/>
     </row>
-    <row r="95" spans="5:6" ht="24" customHeight="1">
+    <row r="95" ht="24" customHeight="1" spans="5:6">
       <c r="E95" s="5"/>
       <c r="F95" s="5"/>
     </row>
-    <row r="96" spans="5:6" ht="24" customHeight="1">
+    <row r="96" ht="24" customHeight="1" spans="5:6">
       <c r="E96" s="5"/>
       <c r="F96" s="5"/>
     </row>
-    <row r="97" spans="5:6" ht="24" customHeight="1">
+    <row r="97" ht="24" customHeight="1" spans="5:6">
       <c r="E97" s="5"/>
       <c r="F97" s="5"/>
     </row>
-    <row r="98" spans="5:6" ht="24" customHeight="1">
+    <row r="98" ht="24" customHeight="1" spans="5:6">
       <c r="E98" s="5"/>
       <c r="F98" s="5"/>
     </row>
-    <row r="99" spans="5:6" ht="24" customHeight="1">
+    <row r="99" ht="24" customHeight="1" spans="5:6">
       <c r="E99" s="5"/>
       <c r="F99" s="5"/>
     </row>
-    <row r="100" spans="5:6" ht="24" customHeight="1">
+    <row r="100" ht="24" customHeight="1" spans="5:6">
       <c r="E100" s="5"/>
       <c r="F100" s="5"/>
     </row>
-    <row r="101" spans="5:6" ht="24" customHeight="1">
+    <row r="101" ht="24" customHeight="1" spans="5:6">
       <c r="E101" s="5"/>
       <c r="F101" s="5"/>
     </row>
-    <row r="102" spans="5:6" ht="24" customHeight="1">
+    <row r="102" ht="24" customHeight="1" spans="5:6">
       <c r="E102" s="5"/>
       <c r="F102" s="5"/>
     </row>
-    <row r="103" spans="5:6" ht="24" customHeight="1">
+    <row r="103" ht="24" customHeight="1" spans="5:6">
       <c r="E103" s="5"/>
       <c r="F103" s="5"/>
     </row>
-    <row r="104" spans="5:6" ht="24" customHeight="1">
+    <row r="104" ht="24" customHeight="1" spans="5:6">
       <c r="E104" s="5"/>
       <c r="F104" s="5"/>
     </row>
-    <row r="105" spans="5:6" ht="24" customHeight="1">
+    <row r="105" ht="24" customHeight="1" spans="5:6">
       <c r="E105" s="5"/>
       <c r="F105" s="5"/>
     </row>
-    <row r="106" spans="5:6" ht="24" customHeight="1">
+    <row r="106" ht="24" customHeight="1" spans="5:6">
       <c r="E106" s="5"/>
       <c r="F106" s="5"/>
     </row>
-    <row r="107" spans="5:6" ht="24" customHeight="1">
+    <row r="107" ht="24" customHeight="1" spans="5:6">
       <c r="E107" s="5"/>
       <c r="F107" s="5"/>
     </row>
-    <row r="108" spans="5:6" ht="24" customHeight="1">
+    <row r="108" ht="24" customHeight="1" spans="5:6">
       <c r="E108" s="5"/>
       <c r="F108" s="5"/>
     </row>
-    <row r="109" spans="5:6" ht="24" customHeight="1">
+    <row r="109" ht="24" customHeight="1" spans="5:6">
       <c r="E109" s="5"/>
       <c r="F109" s="5"/>
     </row>
-    <row r="110" spans="5:6" ht="24" customHeight="1">
+    <row r="110" ht="24" customHeight="1" spans="5:6">
       <c r="E110" s="5"/>
       <c r="F110" s="5"/>
     </row>
-    <row r="111" spans="5:6" ht="24" customHeight="1">
+    <row r="111" ht="24" customHeight="1" spans="5:6">
       <c r="E111" s="5"/>
       <c r="F111" s="5"/>
     </row>
-    <row r="112" spans="5:6" ht="24" customHeight="1">
+    <row r="112" ht="24" customHeight="1" spans="5:6">
       <c r="E112" s="5"/>
       <c r="F112" s="5"/>
     </row>
-    <row r="113" spans="5:6" ht="24" customHeight="1">
+    <row r="113" ht="24" customHeight="1" spans="5:6">
       <c r="E113" s="5"/>
       <c r="F113" s="5"/>
     </row>
-    <row r="114" spans="5:6" ht="24" customHeight="1">
+    <row r="114" ht="24" customHeight="1" spans="5:6">
       <c r="E114" s="5"/>
       <c r="F114" s="5"/>
     </row>
-    <row r="115" spans="5:6" ht="24" customHeight="1">
+    <row r="115" ht="24" customHeight="1" spans="5:6">
       <c r="E115" s="5"/>
       <c r="F115" s="5"/>
     </row>
-    <row r="116" spans="5:6" ht="24" customHeight="1">
+    <row r="116" ht="24" customHeight="1" spans="5:6">
       <c r="E116" s="5"/>
       <c r="F116" s="5"/>
     </row>
-    <row r="117" spans="5:6" ht="24" customHeight="1">
+    <row r="117" ht="24" customHeight="1" spans="5:6">
       <c r="E117" s="5"/>
       <c r="F117" s="5"/>
     </row>
-    <row r="118" spans="5:6" ht="24" customHeight="1">
+    <row r="118" ht="24" customHeight="1" spans="5:6">
       <c r="E118" s="5"/>
       <c r="F118" s="5"/>
     </row>
-    <row r="119" spans="5:6" ht="24" customHeight="1">
+    <row r="119" ht="24" customHeight="1" spans="5:6">
       <c r="E119" s="5"/>
       <c r="F119" s="5"/>
     </row>
-    <row r="120" spans="5:6" ht="24" customHeight="1">
+    <row r="120" ht="24" customHeight="1" spans="5:6">
       <c r="E120" s="5"/>
       <c r="F120" s="5"/>
     </row>
-    <row r="121" spans="5:6" ht="24" customHeight="1">
+    <row r="121" ht="24" customHeight="1" spans="5:6">
       <c r="E121" s="5"/>
       <c r="F121" s="5"/>
     </row>
-    <row r="122" spans="5:6" ht="24" customHeight="1">
+    <row r="122" ht="24" customHeight="1" spans="5:6">
       <c r="E122" s="5"/>
       <c r="F122" s="5"/>
     </row>
-    <row r="123" spans="5:6" ht="24" customHeight="1">
+    <row r="123" ht="24" customHeight="1" spans="5:6">
       <c r="E123" s="5"/>
       <c r="F123" s="5"/>
     </row>
-    <row r="124" spans="5:6" ht="24" customHeight="1">
+    <row r="124" ht="24" customHeight="1" spans="5:6">
       <c r="E124" s="5"/>
       <c r="F124" s="5"/>
     </row>
-    <row r="125" spans="5:6" ht="24" customHeight="1">
+    <row r="125" ht="24" customHeight="1" spans="5:6">
       <c r="E125" s="5"/>
       <c r="F125" s="5"/>
     </row>
-    <row r="126" spans="5:6" ht="24" customHeight="1">
+    <row r="126" ht="24" customHeight="1" spans="5:6">
       <c r="E126" s="5"/>
       <c r="F126" s="5"/>
     </row>
-    <row r="127" spans="5:6" ht="24" customHeight="1">
+    <row r="127" ht="24" customHeight="1" spans="5:6">
       <c r="E127" s="5"/>
       <c r="F127" s="5"/>
     </row>
-    <row r="128" spans="5:6" ht="24" customHeight="1">
+    <row r="128" ht="24" customHeight="1" spans="5:6">
       <c r="E128" s="5"/>
       <c r="F128" s="5"/>
     </row>
-    <row r="129" spans="5:6" ht="24" customHeight="1">
+    <row r="129" ht="24" customHeight="1" spans="5:6">
       <c r="E129" s="5"/>
       <c r="F129" s="5"/>
     </row>
-    <row r="130" spans="5:6" ht="24" customHeight="1">
+    <row r="130" ht="24" customHeight="1" spans="5:6">
       <c r="E130" s="5"/>
       <c r="F130" s="5"/>
     </row>
-    <row r="131" spans="5:6" ht="24" customHeight="1">
+    <row r="131" ht="24" customHeight="1" spans="5:6">
       <c r="E131" s="5"/>
       <c r="F131" s="5"/>
     </row>
-    <row r="132" spans="5:6" ht="24" customHeight="1">
+    <row r="132" ht="24" customHeight="1" spans="5:6">
       <c r="E132" s="5"/>
       <c r="F132" s="5"/>
     </row>
-    <row r="133" spans="5:6" ht="24" customHeight="1">
+    <row r="133" ht="24" customHeight="1" spans="5:6">
       <c r="E133" s="5"/>
       <c r="F133" s="5"/>
     </row>
-    <row r="134" spans="5:6" ht="24" customHeight="1">
+    <row r="134" ht="24" customHeight="1" spans="5:6">
       <c r="E134" s="5"/>
       <c r="F134" s="5"/>
     </row>
-    <row r="135" spans="5:6" ht="24" customHeight="1">
+    <row r="135" ht="24" customHeight="1" spans="5:6">
       <c r="E135" s="5"/>
       <c r="F135" s="5"/>
     </row>
-    <row r="136" spans="5:6" ht="24" customHeight="1">
+    <row r="136" ht="24" customHeight="1" spans="5:6">
       <c r="E136" s="5"/>
       <c r="F136" s="5"/>
     </row>
-    <row r="137" spans="5:6" ht="24" customHeight="1">
+    <row r="137" ht="24" customHeight="1" spans="5:6">
       <c r="E137" s="5"/>
       <c r="F137" s="5"/>
     </row>
-    <row r="138" spans="5:6" ht="24" customHeight="1">
+    <row r="138" ht="24" customHeight="1" spans="5:6">
       <c r="E138" s="5"/>
       <c r="F138" s="5"/>
     </row>
-    <row r="139" spans="5:6" ht="24" customHeight="1">
+    <row r="139" ht="24" customHeight="1" spans="5:6">
       <c r="E139" s="5"/>
       <c r="F139" s="5"/>
     </row>
-    <row r="140" spans="5:6" ht="24" customHeight="1">
+    <row r="140" ht="24" customHeight="1" spans="5:6">
       <c r="E140" s="5"/>
       <c r="F140" s="5"/>
     </row>
-    <row r="141" spans="5:6" ht="24" customHeight="1">
+    <row r="141" ht="24" customHeight="1" spans="5:6">
       <c r="E141" s="5"/>
       <c r="F141" s="5"/>
     </row>
-    <row r="142" spans="5:6" ht="24" customHeight="1">
+    <row r="142" ht="24" customHeight="1" spans="5:6">
       <c r="E142" s="5"/>
       <c r="F142" s="5"/>
     </row>
-    <row r="143" spans="5:6" ht="24" customHeight="1">
+    <row r="143" ht="24" customHeight="1" spans="5:6">
       <c r="E143" s="5"/>
       <c r="F143" s="5"/>
     </row>
-    <row r="144" spans="5:6" ht="24" customHeight="1">
+    <row r="144" ht="24" customHeight="1" spans="5:6">
       <c r="E144" s="5"/>
       <c r="F144" s="5"/>
     </row>
-    <row r="145" spans="5:6" ht="24" customHeight="1">
+    <row r="145" ht="24" customHeight="1" spans="5:6">
       <c r="E145" s="5"/>
       <c r="F145" s="5"/>
     </row>
-    <row r="146" spans="5:6" ht="24" customHeight="1">
+    <row r="146" ht="24" customHeight="1" spans="5:6">
       <c r="E146" s="5"/>
       <c r="F146" s="5"/>
     </row>
-    <row r="147" spans="5:6" ht="24" customHeight="1">
+    <row r="147" ht="24" customHeight="1" spans="5:6">
       <c r="E147" s="5"/>
       <c r="F147" s="5"/>
     </row>
-    <row r="148" spans="5:6" ht="24" customHeight="1">
+    <row r="148" ht="24" customHeight="1" spans="5:6">
       <c r="E148" s="5"/>
       <c r="F148" s="5"/>
     </row>
-    <row r="149" spans="5:6" ht="24" customHeight="1">
+    <row r="149" ht="24" customHeight="1" spans="5:6">
       <c r="E149" s="5"/>
       <c r="F149" s="5"/>
     </row>
-    <row r="150" spans="5:6" ht="24" customHeight="1">
+    <row r="150" ht="24" customHeight="1" spans="5:6">
       <c r="E150" s="5"/>
       <c r="F150" s="5"/>
     </row>
-    <row r="151" spans="5:6" ht="24" customHeight="1">
+    <row r="151" ht="24" customHeight="1" spans="5:6">
       <c r="E151" s="5"/>
       <c r="F151" s="5"/>
     </row>
-    <row r="152" spans="5:6" ht="24" customHeight="1">
+    <row r="152" ht="24" customHeight="1" spans="5:6">
       <c r="E152" s="5"/>
       <c r="F152" s="5"/>
     </row>
-    <row r="153" spans="5:6" ht="24" customHeight="1">
+    <row r="153" ht="24" customHeight="1" spans="5:6">
       <c r="E153" s="5"/>
       <c r="F153" s="5"/>
     </row>
-    <row r="154" spans="5:6" ht="24" customHeight="1">
+    <row r="154" ht="24" customHeight="1" spans="5:6">
       <c r="E154" s="5"/>
       <c r="F154" s="5"/>
     </row>
-    <row r="155" spans="5:6" ht="24" customHeight="1">
+    <row r="155" ht="24" customHeight="1" spans="5:6">
       <c r="E155" s="5"/>
       <c r="F155" s="5"/>
     </row>
-    <row r="156" spans="5:6" ht="24" customHeight="1">
+    <row r="156" ht="24" customHeight="1" spans="5:6">
       <c r="E156" s="5"/>
       <c r="F156" s="5"/>
     </row>
-    <row r="157" spans="5:6" ht="24" customHeight="1">
+    <row r="157" ht="24" customHeight="1" spans="5:6">
       <c r="E157" s="5"/>
       <c r="F157" s="5"/>
     </row>
-    <row r="158" spans="5:6" ht="24" customHeight="1">
+    <row r="158" ht="24" customHeight="1" spans="5:6">
       <c r="E158" s="5"/>
       <c r="F158" s="5"/>
     </row>
-    <row r="159" spans="5:6" ht="24" customHeight="1">
+    <row r="159" ht="24" customHeight="1" spans="5:6">
       <c r="E159" s="5"/>
       <c r="F159" s="5"/>
     </row>
-    <row r="160" spans="5:6" ht="24" customHeight="1">
+    <row r="160" ht="24" customHeight="1" spans="5:6">
       <c r="E160" s="5"/>
       <c r="F160" s="5"/>
     </row>
-    <row r="161" spans="5:6" ht="24" customHeight="1">
+    <row r="161" ht="24" customHeight="1" spans="5:6">
       <c r="E161" s="5"/>
       <c r="F161" s="5"/>
     </row>
-    <row r="162" spans="5:6" ht="24" customHeight="1">
+    <row r="162" ht="24" customHeight="1" spans="5:6">
       <c r="E162" s="5"/>
       <c r="F162" s="5"/>
     </row>
-    <row r="163" spans="5:6" ht="24" customHeight="1">
+    <row r="163" ht="24" customHeight="1" spans="5:6">
       <c r="E163" s="5"/>
       <c r="F163" s="5"/>
     </row>
-    <row r="164" spans="5:6" ht="24" customHeight="1">
+    <row r="164" ht="24" customHeight="1" spans="5:6">
       <c r="E164" s="5"/>
       <c r="F164" s="5"/>
     </row>
-    <row r="165" spans="5:6" ht="24" customHeight="1">
+    <row r="165" ht="24" customHeight="1" spans="5:6">
       <c r="E165" s="5"/>
       <c r="F165" s="5"/>
     </row>
-    <row r="166" spans="5:6" ht="24" customHeight="1">
+    <row r="166" ht="24" customHeight="1" spans="5:6">
       <c r="E166" s="5"/>
       <c r="F166" s="5"/>
     </row>
-    <row r="167" spans="5:6" ht="24" customHeight="1">
+    <row r="167" ht="24" customHeight="1" spans="5:6">
       <c r="E167" s="5"/>
       <c r="F167" s="5"/>
     </row>
-    <row r="168" spans="5:6" ht="24" customHeight="1">
+    <row r="168" ht="24" customHeight="1" spans="5:6">
       <c r="E168" s="5"/>
       <c r="F168" s="5"/>
     </row>
-    <row r="169" spans="5:6" ht="24" customHeight="1">
+    <row r="169" ht="24" customHeight="1" spans="5:6">
       <c r="E169" s="5"/>
       <c r="F169" s="5"/>
     </row>
-    <row r="170" spans="5:6" ht="24" customHeight="1">
+    <row r="170" ht="24" customHeight="1" spans="5:6">
       <c r="E170" s="5"/>
       <c r="F170" s="5"/>
     </row>
-    <row r="171" spans="5:6" ht="24" customHeight="1">
+    <row r="171" ht="24" customHeight="1" spans="5:6">
       <c r="E171" s="5"/>
       <c r="F171" s="5"/>
     </row>
-    <row r="172" spans="5:6" ht="24" customHeight="1">
+    <row r="172" ht="24" customHeight="1" spans="5:6">
       <c r="E172" s="5"/>
       <c r="F172" s="5"/>
     </row>
-    <row r="173" spans="5:6" ht="24" customHeight="1">
+    <row r="173" ht="24" customHeight="1" spans="5:6">
       <c r="E173" s="5"/>
       <c r="F173" s="5"/>
     </row>
-    <row r="174" spans="5:6" ht="24" customHeight="1">
+    <row r="174" ht="24" customHeight="1" spans="5:6">
       <c r="E174" s="5"/>
       <c r="F174" s="5"/>
     </row>
-    <row r="175" spans="5:6" ht="24" customHeight="1">
+    <row r="175" ht="24" customHeight="1" spans="5:6">
       <c r="E175" s="5"/>
       <c r="F175" s="5"/>
     </row>
-    <row r="176" spans="5:6" ht="24" customHeight="1">
+    <row r="176" ht="24" customHeight="1" spans="5:6">
       <c r="E176" s="5"/>
       <c r="F176" s="5"/>
     </row>
-    <row r="177" spans="5:6" ht="24" customHeight="1">
+    <row r="177" ht="24" customHeight="1" spans="5:6">
       <c r="E177" s="5"/>
       <c r="F177" s="5"/>
     </row>
-    <row r="178" spans="5:6" ht="24" customHeight="1">
+    <row r="178" ht="24" customHeight="1" spans="5:6">
       <c r="E178" s="5"/>
       <c r="F178" s="5"/>
     </row>
-    <row r="179" spans="5:6" ht="24" customHeight="1">
+    <row r="179" ht="24" customHeight="1" spans="5:6">
       <c r="E179" s="5"/>
       <c r="F179" s="5"/>
     </row>
-    <row r="180" spans="5:6" ht="24" customHeight="1">
+    <row r="180" ht="24" customHeight="1" spans="5:6">
       <c r="E180" s="5"/>
       <c r="F180" s="5"/>
     </row>
-    <row r="181" spans="5:6" ht="24" customHeight="1">
+    <row r="181" ht="24" customHeight="1" spans="5:6">
       <c r="E181" s="5"/>
       <c r="F181" s="5"/>
     </row>
-    <row r="182" spans="5:6" ht="24" customHeight="1">
+    <row r="182" ht="24" customHeight="1" spans="5:6">
       <c r="E182" s="5"/>
       <c r="F182" s="5"/>
     </row>
-    <row r="183" spans="5:6" ht="24" customHeight="1">
+    <row r="183" ht="24" customHeight="1" spans="5:6">
       <c r="E183" s="5"/>
       <c r="F183" s="5"/>
     </row>
-    <row r="184" spans="5:6" ht="24" customHeight="1">
+    <row r="184" ht="24" customHeight="1" spans="5:6">
       <c r="E184" s="5"/>
       <c r="F184" s="5"/>
     </row>
-    <row r="185" spans="5:6" ht="24" customHeight="1">
+    <row r="185" ht="24" customHeight="1" spans="5:6">
       <c r="E185" s="5"/>
       <c r="F185" s="5"/>
     </row>
-    <row r="186" spans="5:6" ht="24" customHeight="1">
+    <row r="186" ht="24" customHeight="1" spans="5:6">
       <c r="E186" s="5"/>
       <c r="F186" s="5"/>
     </row>
-    <row r="187" spans="5:6" ht="24" customHeight="1">
+    <row r="187" ht="24" customHeight="1" spans="5:6">
       <c r="E187" s="5"/>
       <c r="F187" s="5"/>
     </row>
-    <row r="188" spans="5:6" ht="24" customHeight="1">
+    <row r="188" ht="24" customHeight="1" spans="5:6">
       <c r="E188" s="5"/>
       <c r="F188" s="5"/>
     </row>
-    <row r="189" spans="5:6" ht="24" customHeight="1">
+    <row r="189" ht="24" customHeight="1" spans="5:6">
       <c r="E189" s="5"/>
       <c r="F189" s="5"/>
     </row>
-    <row r="190" spans="5:6" ht="24" customHeight="1">
+    <row r="190" ht="24" customHeight="1" spans="5:6">
       <c r="E190" s="5"/>
       <c r="F190" s="5"/>
     </row>
-    <row r="191" spans="5:6" ht="24" customHeight="1">
+    <row r="191" ht="24" customHeight="1" spans="5:6">
       <c r="E191" s="5"/>
       <c r="F191" s="5"/>
     </row>
-    <row r="192" spans="5:6" ht="24" customHeight="1">
+    <row r="192" ht="24" customHeight="1" spans="5:6">
       <c r="E192" s="5"/>
       <c r="F192" s="5"/>
     </row>
-    <row r="193" spans="5:6" ht="24" customHeight="1">
+    <row r="193" ht="24" customHeight="1" spans="5:6">
       <c r="E193" s="5"/>
       <c r="F193" s="5"/>
     </row>
-    <row r="194" spans="5:6" ht="24" customHeight="1">
+    <row r="194" ht="24" customHeight="1" spans="5:6">
       <c r="E194" s="5"/>
       <c r="F194" s="5"/>
     </row>
-    <row r="195" spans="5:6" ht="24" customHeight="1">
+    <row r="195" ht="24" customHeight="1" spans="5:6">
       <c r="E195" s="5"/>
       <c r="F195" s="5"/>
     </row>
-    <row r="196" spans="5:6" ht="24" customHeight="1">
+    <row r="196" ht="24" customHeight="1" spans="5:6">
       <c r="E196" s="5"/>
       <c r="F196" s="5"/>
     </row>
-    <row r="197" spans="5:6" ht="24" customHeight="1">
+    <row r="197" ht="24" customHeight="1" spans="5:6">
       <c r="E197" s="5"/>
       <c r="F197" s="5"/>
     </row>
-    <row r="198" spans="5:6" ht="24" customHeight="1">
+    <row r="198" ht="24" customHeight="1" spans="5:6">
       <c r="E198" s="5"/>
       <c r="F198" s="5"/>
     </row>
-    <row r="199" spans="5:6" ht="24" customHeight="1">
+    <row r="199" ht="24" customHeight="1" spans="5:6">
       <c r="E199" s="5"/>
       <c r="F199" s="5"/>
     </row>
-    <row r="200" spans="5:6" ht="24" customHeight="1">
+    <row r="200" ht="24" customHeight="1" spans="5:6">
       <c r="E200" s="5"/>
       <c r="F200" s="5"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>